--- a/Classwork/3/Activities/03-Ins_ScatterPlot/Solved/ScatterPlot.xlsx
+++ b/Classwork/3/Activities/03-Ins_ScatterPlot/Solved/ScatterPlot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bradyrothrock/Trilogy/Curriculum Development/Pilots/DataViz-Lesson-Plans/01-Lesson-Plans/01-Excel/3/Activities/04-Ins_ScatterPlot/Solved/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meria\Desktop\Rutgers\RutgersBootCamp\Classwork\3\Activities\03-Ins_ScatterPlot\Solved\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D47F8F-A4D9-2643-AA13-30DFAD2A722E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DA40C2-B1FD-4836-8846-DC8D27724A51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="14380" windowHeight="14080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12040" yWindow="130" windowWidth="12640" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Normal Trend" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -502,6 +505,403 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Normal Trend'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Car Price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Normal Trend'!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>42763</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>195387</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35672</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>217637</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74734</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130550</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42976</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>151132</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54936</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Normal Trend'!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>19455</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93965</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20858</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>107164</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34036</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87806</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17927</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91518</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29479</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-216C-47CA-99F2-B7869E21DC68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="736136192"/>
+        <c:axId val="736146592"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="736136192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="736146592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="736146592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="736136192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
@@ -824,7 +1224,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1320,6 +1720,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2353,6 +2793,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2901,6 +3857,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>441325</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC8C8F8D-B76D-4787-8CCB-547EE0C25599}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3290,16 +4282,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" customWidth="1"/>
+    <col min="1" max="2" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3307,7 +4299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>42763</v>
       </c>
@@ -3315,7 +4307,7 @@
         <v>19455</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>195387</v>
       </c>
@@ -3323,7 +4315,7 @@
         <v>93965</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>35672</v>
       </c>
@@ -3331,7 +4323,7 @@
         <v>20858</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>217637</v>
       </c>
@@ -3339,7 +4331,7 @@
         <v>107164</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>74734</v>
       </c>
@@ -3347,7 +4339,7 @@
         <v>34036</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>130550</v>
       </c>
@@ -3355,7 +4347,7 @@
         <v>87806</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>42976</v>
       </c>
@@ -3363,7 +4355,7 @@
         <v>17927</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>151132</v>
       </c>
@@ -3371,7 +4363,7 @@
         <v>91518</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>54936</v>
       </c>
@@ -3394,12 +4386,12 @@
       <selection sqref="A1:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" customWidth="1"/>
+    <col min="1" max="2" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3407,7 +4399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3416,7 +4408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3425,7 +4417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3434,7 +4426,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3443,7 +4435,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3452,7 +4444,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3461,7 +4453,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3470,7 +4462,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3479,7 +4471,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3488,7 +4480,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3497,7 +4489,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3506,7 +4498,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3525,16 +4517,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="12.6640625" customWidth="1"/>
+    <col min="1" max="2" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3542,7 +4534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3551,7 +4543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>A2+0.1</f>
         <v>1.1000000000000001</v>
@@ -3561,7 +4553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A12" si="1">A3+0.1</f>
         <v>1.2000000000000002</v>
@@ -3571,7 +4563,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <f t="shared" si="1"/>
         <v>1.3000000000000003</v>
@@ -3581,7 +4573,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <f t="shared" si="1"/>
         <v>1.4000000000000004</v>
@@ -3591,7 +4583,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <f t="shared" si="1"/>
         <v>1.5000000000000004</v>
@@ -3601,7 +4593,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <f t="shared" si="1"/>
         <v>1.6000000000000005</v>
@@ -3611,7 +4603,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <f t="shared" si="1"/>
         <v>1.7000000000000006</v>
@@ -3621,7 +4613,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <f t="shared" si="1"/>
         <v>1.8000000000000007</v>
@@ -3631,7 +4623,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <f t="shared" si="1"/>
         <v>1.9000000000000008</v>
@@ -3641,7 +4633,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <f t="shared" si="1"/>
         <v>2.0000000000000009</v>
@@ -3651,15 +4643,15 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
